--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="457">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -7092,6 +7092,36 @@
   </si>
   <si>
     <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender需要配合起来使用，其实本质上来讲，这两者一个是解码，一个是编码的关系。</t>
+  </si>
+  <si>
+    <t>网络七层</t>
+  </si>
+  <si>
+    <t>应用层：应用程序间沟通的层，如简单电子邮件传输（SMTP）、文件传输协议（FTP）、网</t>
+  </si>
+  <si>
+    <t>络远程访问协议（Telnet）、超文本传输协议(HTTP)、可扩展通讯和表示协议（XMPP）等。</t>
+  </si>
+  <si>
+    <t>传输层：在此层中，它提供了节点间的数据传送服务，如传输控制协议（TCP）、用户数据</t>
+  </si>
+  <si>
+    <t>报协议（UDP）等，TCP 和 UDP 给数据包加入传输数据并把它传输到下一层中，这一层负责传送数据，</t>
+  </si>
+  <si>
+    <t>并且确定数据已被送达并接收。</t>
+  </si>
+  <si>
+    <t>互连网络层：负责提供基本的数据封包传送功能，让每一块数据包都能够到达目的主机（但</t>
+  </si>
+  <si>
+    <t>不检查是否被正确接收），如网际协议（IP）。</t>
+  </si>
+  <si>
+    <t>网络接口层：对实际的网络媒体的管理，定义如何使用实际网络（如 Ethernet、SerialLine</t>
+  </si>
+  <si>
+    <t>等）来传送数据。</t>
   </si>
   <si>
     <t>一次正常的文件读写拷贝：4次转换，3次读写来实现</t>
@@ -7170,7 +7200,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7182,6 +7212,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7220,18 +7264,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7242,15 +7279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7258,7 +7289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7272,41 +7303,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7326,11 +7340,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7341,16 +7392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7365,7 +7409,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7377,73 +7547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7455,73 +7565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7533,19 +7577,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7574,16 +7618,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7621,11 +7676,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7639,11 +7692,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7651,23 +7710,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7679,10 +7723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7691,137 +7735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7831,22 +7875,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -8852,6 +8902,53 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>677545</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705485" y="6448425"/>
+          <a:ext cx="3401060" cy="2600960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -9267,7 +9364,7 @@
   <sheetPr/>
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
@@ -9309,19 +9406,19 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" ht="15" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="2" t="s">
@@ -9340,35 +9437,35 @@
     </row>
     <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" ht="14.25" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" ht="14.25" spans="2:3">
       <c r="B14" s="1"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" ht="14.25" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" ht="15" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
@@ -9803,8 +9900,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+      <selection activeCell="D473" sqref="D473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9833,56 +9930,56 @@
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="3"/>
-      <c r="K13" s="3"/>
+      <c r="B13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
@@ -11616,10 +11713,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11782,19 +11879,73 @@
         <v>434</v>
       </c>
     </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38"/>
+    </row>
+    <row r="54" ht="14.25" spans="2:2">
+      <c r="B54" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="55" ht="14.25" spans="2:2">
+      <c r="B55" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" ht="14.25" spans="2:2">
+      <c r="B56" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="57" ht="14.25" spans="2:2">
+      <c r="B57" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" ht="14.25" spans="2:2">
+      <c r="B58" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" ht="14.25" spans="2:2">
+      <c r="B60" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" ht="14.25" spans="2:2">
+      <c r="B63" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A55" sqref="$A55:$XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -11809,64 +11960,93 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>446</v>
-      </c>
-    </row>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1"/>
+    <row r="56" customFormat="1"/>
+    <row r="57" customFormat="1"/>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" customFormat="1"/>
+    <row r="61" customFormat="1"/>
+    <row r="62" customFormat="1"/>
+    <row r="63" customFormat="1"/>
+    <row r="64" customFormat="1"/>
+    <row r="65" customFormat="1"/>
+    <row r="66" customFormat="1"/>
+    <row r="67" customFormat="1"/>
+    <row r="68" customFormat="1"/>
+    <row r="69" customFormat="1"/>
+    <row r="70" customFormat="1"/>
+    <row r="71" customFormat="1"/>
+    <row r="72" customFormat="1"/>
+    <row r="73" customFormat="1"/>
+    <row r="74" customFormat="1"/>
+    <row r="75" customFormat="1"/>
+    <row r="76" customFormat="1"/>
+    <row r="77" customFormat="1"/>
+    <row r="78" customFormat="1"/>
+    <row r="79" customFormat="1"/>
+    <row r="80" customFormat="1"/>
+    <row r="81" customFormat="1"/>
+    <row r="82" customFormat="1"/>
+    <row r="83" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -7195,10 +7195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -7264,7 +7264,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -7272,16 +7278,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7296,14 +7379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7317,84 +7393,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7409,7 +7409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7421,61 +7457,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7493,7 +7499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7505,25 +7523,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7541,55 +7565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7620,11 +7620,72 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7644,74 +7705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7723,10 +7723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7735,16 +7735,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7753,115 +7753,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9900,8 +9900,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="D473" sqref="D473"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -7195,10 +7195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -7272,6 +7272,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -7286,8 +7301,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7309,40 +7378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7355,48 +7392,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7409,13 +7409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7427,13 +7433,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7445,7 +7535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7457,109 +7547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7577,19 +7565,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7620,6 +7620,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -7642,24 +7653,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7670,6 +7663,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -7690,28 +7698,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7723,10 +7723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7735,10 +7735,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7753,115 +7753,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9900,8 +9900,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -7196,8 +7196,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -7264,15 +7264,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7287,22 +7288,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -7310,15 +7310,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7332,31 +7324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7371,6 +7339,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7378,8 +7369,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7393,10 +7393,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7409,13 +7409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7427,19 +7457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7451,19 +7481,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7481,19 +7535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7505,25 +7553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7535,61 +7589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7618,13 +7618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7633,7 +7637,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7649,36 +7653,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7702,6 +7676,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -7715,6 +7700,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7723,10 +7723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7735,16 +7735,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7753,115 +7753,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9900,8 +9900,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="F434" sqref="F434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="463">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -4355,6 +4355,24 @@
       </rPr>
       <t>MainRecator可以关联多个SubReactor</t>
     </r>
+  </si>
+  <si>
+    <t>需求是否合理</t>
+  </si>
+  <si>
+    <t>入股可行，优先级判断</t>
+  </si>
+  <si>
+    <t>本地生活</t>
+  </si>
+  <si>
+    <t>美团类似</t>
+  </si>
+  <si>
+    <t>java，aux，rocketmq，rpc，</t>
+  </si>
+  <si>
+    <t>营销平台</t>
   </si>
   <si>
     <t>Netty模型</t>
@@ -7195,10 +7213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -7264,38 +7282,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7309,22 +7297,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7338,26 +7357,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7385,16 +7403,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7406,6 +7424,84 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -7421,7 +7517,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7433,109 +7589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7548,48 +7608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7618,30 +7636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -7657,6 +7651,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -7668,6 +7671,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7692,26 +7710,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7723,10 +7741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7735,16 +7753,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7753,115 +7771,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9900,8 +9918,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="F434" sqref="F434"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10567,214 +10585,240 @@
         <v>207</v>
       </c>
     </row>
+    <row r="201" spans="6:6">
+      <c r="F201" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="6:8">
+      <c r="F204" t="s">
+        <v>210</v>
+      </c>
+      <c r="G204" t="s">
+        <v>211</v>
+      </c>
+      <c r="H204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" t="s">
+        <v>213</v>
+      </c>
+    </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="2:2">
       <c r="B213" s="2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="3:3">
       <c r="C215" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="217" spans="3:3">
       <c r="C217" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219" spans="2:2">
       <c r="B219" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="222" spans="4:4">
       <c r="D222" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224" spans="2:2">
       <c r="B224" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="225" spans="3:3">
       <c r="C225" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="2:2">
       <c r="B228" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="3:3">
       <c r="C229" s="2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="3:3">
       <c r="C230" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C238" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="3:3">
       <c r="C240" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C242" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="3:3">
       <c r="C243" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="3:3">
       <c r="C244" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C246" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="3:3">
       <c r="C247" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="3:3">
       <c r="C248" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C250" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="4:4">
       <c r="D252" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="3:3">
       <c r="C253" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C255" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1">
@@ -10826,358 +10870,358 @@
     <row r="269" customFormat="1"/>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="271" spans="2:2">
       <c r="B271" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" s="2" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="277" spans="2:2">
       <c r="B277" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="278" spans="3:3">
       <c r="C278" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="281" spans="2:2">
       <c r="B281" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="2:2">
       <c r="B283" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="291" spans="2:2">
       <c r="B291" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="295" spans="2:2">
       <c r="B295" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="296" spans="3:3">
       <c r="C296" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="312" spans="3:3">
       <c r="C312" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="347" spans="2:2">
       <c r="B347" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="350" spans="2:2">
       <c r="B350" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="351" spans="2:2">
       <c r="B351" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="352" spans="2:2">
       <c r="B352" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="353" spans="2:2">
       <c r="B353" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="354" spans="3:3">
       <c r="C354" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="355" spans="4:4">
       <c r="D355" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="356" spans="3:3">
       <c r="C356" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="357" spans="3:3">
       <c r="C357" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="359" spans="3:3">
       <c r="C359" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="360" spans="3:3">
       <c r="C360" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="363" spans="2:2">
       <c r="B363" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="364" spans="2:2">
       <c r="B364" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="369" spans="2:2">
       <c r="B369" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="370" spans="2:2">
       <c r="B370" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="371" spans="2:3">
       <c r="B371" s="2"/>
       <c r="C371" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="372" spans="2:2">
@@ -11185,42 +11229,42 @@
     </row>
     <row r="373" spans="2:2">
       <c r="B373" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="376" spans="2:2">
       <c r="B376" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="378" spans="2:2">
       <c r="B378" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="385" spans="2:2">
@@ -11228,242 +11272,242 @@
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="397" spans="4:4">
       <c r="D397" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="398" spans="4:4">
       <c r="D398" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="400" spans="4:4">
       <c r="D400" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="402" spans="2:2">
       <c r="B402" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="403" spans="2:2">
       <c r="B403" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="404" spans="3:3">
       <c r="C404" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="405" spans="2:2">
       <c r="B405" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="406" spans="3:3">
       <c r="C406" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="407" spans="3:3">
       <c r="C407" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="408" spans="3:3">
       <c r="C408" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="409" spans="3:3">
       <c r="C409" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="411" spans="2:2">
       <c r="B411" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="412" spans="3:3">
       <c r="C412" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="413" spans="3:3">
       <c r="C413" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="414" spans="3:3">
       <c r="C414" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="424" spans="2:2">
       <c r="B424" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="425" spans="2:2">
       <c r="B425" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="427" spans="2:2">
       <c r="B427" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="428" spans="2:2">
       <c r="B428" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="429" spans="2:2">
       <c r="B429" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="434" spans="2:2">
       <c r="B434" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="435" spans="2:2">
       <c r="B435" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="436" spans="2:2">
       <c r="B436" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="437" spans="2:2">
       <c r="B437" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="438" spans="2:2">
       <c r="B438" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="447" spans="2:2">
       <c r="B447" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="448" spans="3:3">
       <c r="C448" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="449" spans="3:3">
       <c r="C449" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="450" spans="3:3">
       <c r="C450" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="451" spans="3:3">
       <c r="C451" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="452" spans="4:4">
       <c r="D452" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="453" spans="4:4">
       <c r="D453" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="458" spans="2:2">
       <c r="B458" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="459" spans="3:3">
       <c r="C459" s="2" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="460" spans="3:3">
       <c r="C460" s="2" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="461" spans="3:3">
@@ -11471,13 +11515,13 @@
     </row>
     <row r="462" spans="3:3">
       <c r="C462" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="463" spans="3:4">
       <c r="C463" s="2"/>
       <c r="D463" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="464" spans="3:3">
@@ -11485,13 +11529,13 @@
     </row>
     <row r="465" spans="3:3">
       <c r="C465" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="466" spans="3:4">
       <c r="C466" s="2"/>
       <c r="D466" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="467" spans="3:3">
@@ -11499,7 +11543,7 @@
     </row>
     <row r="468" spans="3:3">
       <c r="C468" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="469" spans="3:3">
@@ -11507,13 +11551,13 @@
     </row>
     <row r="470" spans="3:3">
       <c r="C470" s="2" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="471" spans="3:4">
       <c r="C471" s="2"/>
       <c r="D471" s="2" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="472" spans="3:3">
@@ -11521,13 +11565,13 @@
     </row>
     <row r="473" spans="3:3">
       <c r="C473" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="474" spans="3:4">
       <c r="C474" s="2"/>
       <c r="D474" s="2" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="475" spans="3:3">
@@ -11535,7 +11579,7 @@
     </row>
     <row r="476" spans="3:3">
       <c r="C476" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="477" spans="3:3">
@@ -11543,7 +11587,7 @@
     </row>
     <row r="478" spans="3:3">
       <c r="C478" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="479" spans="3:3">
@@ -11551,7 +11595,7 @@
     </row>
     <row r="480" spans="3:3">
       <c r="C480" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="481" spans="3:3">
@@ -11559,13 +11603,13 @@
     </row>
     <row r="482" spans="3:3">
       <c r="C482" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="483" spans="3:4">
       <c r="C483" s="2"/>
       <c r="D483" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="484" spans="3:3">
@@ -11573,40 +11617,40 @@
     </row>
     <row r="485" spans="3:3">
       <c r="C485" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="486" spans="3:4">
       <c r="C486" s="2"/>
       <c r="D486" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="487" spans="3:4">
       <c r="C487" s="2"/>
       <c r="D487" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="488" spans="3:4">
       <c r="C488" s="2"/>
       <c r="D488" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="491" spans="2:2">
       <c r="B491" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="496" spans="1:1">
@@ -11616,87 +11660,87 @@
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="516" spans="2:2">
       <c r="B516" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="517" spans="3:3">
       <c r="C517" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="518" spans="3:3">
       <c r="C518" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="519" spans="3:3">
       <c r="C519" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="520" spans="3:3">
       <c r="C520" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="521" spans="3:3">
       <c r="C521" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="522" spans="3:3">
       <c r="C522" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="523" spans="4:4">
       <c r="D523" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="524" spans="4:4">
       <c r="D524" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="526" spans="2:2">
       <c r="B526" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="527" spans="3:3">
       <c r="C527" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="528" spans="3:3">
       <c r="C528" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="529" spans="3:3">
       <c r="C529" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="530" spans="3:3">
       <c r="C530" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="531" spans="3:3">
       <c r="C531" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="532" spans="3:3">
       <c r="C532" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -11726,67 +11770,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -11836,52 +11880,52 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -11889,47 +11933,47 @@
     </row>
     <row r="54" ht="14.25" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="2:2">
       <c r="B55" s="3" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="2:2">
       <c r="B58" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -11960,62 +12004,62 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" customFormat="1"/>

--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="24525" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="netty" sheetId="3" r:id="rId3"/>
     <sheet name="基础" sheetId="4" r:id="rId4"/>
     <sheet name="NIO" sheetId="5" r:id="rId5"/>
+    <sheet name="Netty启动过程源码分析" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="490">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -3433,36 +3434,38 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ChannelFutureListener</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 监听事件，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>当操作执行成功或者失败时，监听就会自动触发返回结果。</t>
+      <t>ChannelFutureListener 监听事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当操作执行成功或者失败时，监听就会自</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动触发返回结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -5243,10 +5246,36 @@
     <t>Pipeline</t>
   </si>
   <si>
-    <t>作用就是可以通过pipeline，用户可以往channel写数据，从channel读数据</t>
-  </si>
-  <si>
-    <t>本质是一个双向链表</t>
+    <r>
+      <t>作用就是可以通过pipeline，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户可以往channel写数据，从channel读数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>本质是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>双向链表</t>
+    </r>
   </si>
   <si>
     <t>他可以调用当数据出站的方法和入站的方法，同时也能遍历内部的链表。</t>
@@ -5268,14 +5297,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>接受异步IO操作的结果</t>
     </r>
     <r>
@@ -5311,13 +5332,49 @@
     </r>
   </si>
   <si>
-    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
+    <r>
+      <t>是一个接口，可以添加监听器，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当监听的事件发生时，就会通知到监听器</t>
+    </r>
   </si>
   <si>
     <t>Future-Listener机制</t>
   </si>
   <si>
-    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
+    <r>
+      <t>当Future对象刚刚创建时，处于非完成状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，调用者可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过返回的ChannelFuture来获取操作执行的状态，</t>
+    </r>
   </si>
   <si>
     <t>注册监听函数来执行完成后的操作</t>
@@ -5448,170 +5505,366 @@
     <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
   </si>
   <si>
-    <t>Netty启动过程源码分析</t>
-  </si>
-  <si>
-    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
-  </si>
-  <si>
-    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.通过 bind 方法启动，内部重要方法为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> initAndRegister 和 dobind </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>方法。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.initAndRegister 方法会</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>反射创建 NioServerSocketChannel 及其相关的 NIO 的对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">， </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>同时也含有NioServerSocketChannelConfig 对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">。然后向 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这个处理器</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用于分配接受的 请求给 worker 线程池。</t>
-    </r>
-  </si>
-  <si>
-    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
-  </si>
-  <si>
-    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
-  </si>
-  <si>
-    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
-  </si>
-  <si>
-    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
-  </si>
-  <si>
-    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
+    <t>Netty启动过程源码分析serverBootstrap.bind</t>
+  </si>
+  <si>
+    <t>doBind:</t>
+  </si>
+  <si>
+    <r>
+      <t>initAndRegister()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始化和注册,并且返回ChannelFuture</t>
+    </r>
+  </si>
+  <si>
+    <t>通过channelFactory反射创建一个channel</t>
+  </si>
+  <si>
+    <t>通过init(channel)初始化channel信息</t>
+  </si>
+  <si>
+    <t>获取初始化ServerBootstrap时定义的option()方法中的数据</t>
+  </si>
+  <si>
+    <t>保存ChannelOptions</t>
+  </si>
+  <si>
+    <t>获取初始化ServerBootstrap时定义的attr()方法中的数据</t>
+  </si>
+  <si>
+    <t>保存childOptions</t>
+  </si>
+  <si>
+    <t>获取channel中的一个pipeline,</t>
+  </si>
+  <si>
+    <t>p.addLast(new ChannelInitializer&lt;Channel&gt;()</t>
+  </si>
+  <si>
+    <t>添加Handler(配置服务端的pipeline)</t>
+  </si>
+  <si>
+    <t>pipeline.addLast(handler);</t>
+  </si>
+  <si>
+    <t>添加连接接入器ServerBootstrapAcceptor</t>
+  </si>
+  <si>
+    <t>pipeline.addLast(new ServerBootstrapAcceptor(</t>
+  </si>
+  <si>
+    <t>通过nio启动初始化工作注册，返回ChannelFuture</t>
+  </si>
+  <si>
+    <t>ChannelFuture regFuture = config().group().register(channel);</t>
+  </si>
+  <si>
+    <t>如果注册完成调用doBind0</t>
+  </si>
+  <si>
+    <t>doBind0</t>
+  </si>
+  <si>
+    <t>channel.eventLoop().execute(new Runnable() {</t>
+  </si>
+  <si>
+    <r>
+      <t>run方法中将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>channel和地址，端口号进行绑定</t>
+    </r>
+  </si>
+  <si>
+    <t>并且addListener(ChannelFutureListener.CLOSE_ON_FAILURE);</t>
+  </si>
+  <si>
+    <t>返回ChannelFuture</t>
   </si>
   <si>
     <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
   </si>
   <si>
+    <r>
+      <t>接受连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建一个新的NioSocketChannel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-----------&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册到一个 worker EventLoop 上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--------&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册selecot Read 事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务器轮询 Accept 事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获取事件后调用 unsafe 的 read 方法</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>doReadMessages 创建 NioSocketChannel 对象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>创建 ServerSocketChanel 类似</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建相关的 pipeline</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.随后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">执行pipeline.fireChannelRead </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法，并将自己绑定到一个 chooser 选择器选择的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> workerGroup 中的一个 EventLoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.在注册的同时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用用户程序中设置的 ChannelInitializer handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>向管道中添加一个自定义的处理器</t>
+    </r>
+  </si>
+  <si>
+    <t>，随后立即删除这个 ChannelInitializer handler，为什么呢？因为初始化好了，不再需要。</t>
+  </si>
+  <si>
     <t>doReadMessages</t>
   </si>
   <si>
+    <r>
+      <t>5.其中再调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管道的 channelActive 方法中，会将曾经注册过的 Nio 事件改成读事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始真正的读监听。</t>
+    </r>
+  </si>
+  <si>
     <t>fireChannelRead</t>
   </si>
   <si>
@@ -5772,7 +6025,19 @@
     <t>ChannelHandler下主要是两个子接口</t>
   </si>
   <si>
-    <t>ChannelInboundHandler(入站): 处理输入数据和Channel状态类型改变。</t>
+    <r>
+      <t>ChannelInboundHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(入站): 处理输入数据和Channel状态类型改变。</t>
+    </r>
   </si>
   <si>
     <t>适配器: ChannelInboundHandlerAdapter（适配器设计模式）</t>
@@ -5781,7 +6046,19 @@
     <t>常用的: SimpleChannelInboundHandler</t>
   </si>
   <si>
-    <t>ChannelOutboundHandler(出站): 处理输出数据</t>
+    <r>
+      <t>ChannelOutboundHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(出站): 处理输出数据</t>
+    </r>
   </si>
   <si>
     <t>适配器: ChannelOutboundHandlerAdapter</t>
@@ -5940,9 +6217,6 @@
     <t>属于ChannelPipeline和ChannelHandler的桥梁</t>
   </si>
   <si>
-    <t>ChannelHandlerContext源码分析</t>
-  </si>
-  <si>
     <t>Netty心跳</t>
   </si>
   <si>
@@ -6998,10 +7272,19 @@
     </r>
   </si>
   <si>
-    <t>Eventloop源码</t>
-  </si>
-  <si>
-    <t>继承图</t>
+    <t>Eventloop</t>
+  </si>
+  <si>
+    <t>EventLoop 的作用是一个死循环，而这个循环中做3件事情：</t>
+  </si>
+  <si>
+    <t>条件的等待 Nio 事件。</t>
+  </si>
+  <si>
+    <t>处理 Nio 事件。</t>
+  </si>
+  <si>
+    <t>处理消息队列中的任务。</t>
   </si>
   <si>
     <t>handler中加入线程池和Context中添加线程池源码</t>
@@ -7206,6 +7489,24 @@
   </si>
   <si>
     <t>sendFile可以利用DMA方式，减少CPU拷贝，mmap则不能（必须从内核拷贝到Socket缓冲区）</t>
+  </si>
+  <si>
+    <t>第一步 保存ChannelOptions</t>
+  </si>
+  <si>
+    <t>保存ChannelAttrs</t>
+  </si>
+  <si>
+    <t>第二步 保存childOptions</t>
+  </si>
+  <si>
+    <t>保存childAttrs</t>
+  </si>
+  <si>
+    <t>第三步 添加Handler(配置服务端的pipeline)</t>
+  </si>
+  <si>
+    <t>第四步 添加连接接入器ServerBootstrapAcceptor</t>
   </si>
 </sst>
 </file>
@@ -7213,9 +7514,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -7283,7 +7584,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7298,22 +7674,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7322,82 +7682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7411,8 +7696,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7427,19 +7728,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7457,13 +7818,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7475,7 +7854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7487,67 +7878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7559,43 +7890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7608,6 +7903,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7660,17 +7961,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7693,19 +7999,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7725,11 +8020,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7741,10 +8042,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7753,16 +8054,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7771,115 +8072,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8454,13 +8755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8478,7 +8779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="65474850"/>
+          <a:off x="714375" y="68389500"/>
           <a:ext cx="6038850" cy="1630045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8538,13 +8839,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>496</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>512</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8562,7 +8863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="85039200"/>
+          <a:off x="685800" y="87610950"/>
           <a:ext cx="4800600" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8578,16 +8879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>489</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>507</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8604,7 +8905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="83972400"/>
+          <a:off x="7372350" y="87182325"/>
           <a:ext cx="7362825" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8790,13 +9091,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>394</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>423</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8814,7 +9115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9172575" y="67551300"/>
+          <a:off x="9172575" y="70465950"/>
           <a:ext cx="4029075" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8832,13 +9133,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8856,7 +9157,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7800975" y="63131700"/>
+          <a:off x="7800975" y="66046350"/>
           <a:ext cx="3877310" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8874,13 +9175,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600710</xdr:colOff>
-      <xdr:row>381</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>286385</xdr:colOff>
-      <xdr:row>389</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8898,7 +9199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772910" y="65370075"/>
+          <a:off x="6772910" y="68284725"/>
           <a:ext cx="5172075" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9088,6 +9389,320 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219710</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="635"/>
+          <a:ext cx="7762875" cy="5410200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8458200" y="352425"/>
+          <a:ext cx="7467600" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="295275"/>
+          <a:ext cx="4638675" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>166370</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>106045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16892270" y="239395"/>
+          <a:ext cx="7962900" cy="7239000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10128250" y="371475"/>
+          <a:ext cx="7016750" cy="755650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="4410075"/>
+          <a:ext cx="7696200" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4156075" y="1660525"/>
+          <a:ext cx="4473575" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9916,10 +10531,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K532"/>
+  <dimension ref="A1:N547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="P46" sqref="P46"/>
+    <sheetView tabSelected="1" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="O465" sqref="O465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10355,8 +10970,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
+    <row r="102" spans="2:3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
         <v>162</v>
       </c>
     </row>
@@ -10919,12 +11535,12 @@
       </c>
     </row>
     <row r="281" spans="2:2">
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="282" spans="2:2">
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>269</v>
       </c>
     </row>
@@ -10964,7 +11580,7 @@
       </c>
     </row>
     <row r="292" spans="2:2">
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -10974,7 +11590,7 @@
       </c>
     </row>
     <row r="295" spans="2:2">
-      <c r="B295" t="s">
+      <c r="B295" s="1" t="s">
         <v>279</v>
       </c>
     </row>
@@ -10984,12 +11600,12 @@
       </c>
     </row>
     <row r="297" spans="2:2">
-      <c r="B297" t="s">
+      <c r="B297" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="298" spans="2:2">
-      <c r="B298" t="s">
+      <c r="B298" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -11133,461 +11749,492 @@
         <v>310</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
-      <c r="B351" t="s">
+    <row r="351" spans="3:3">
+      <c r="C351" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="2:2">
-      <c r="B352" s="2" t="s">
+    <row r="352" spans="4:4">
+      <c r="D352" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
-      <c r="B353" s="2" t="s">
+    <row r="353" spans="4:4">
+      <c r="D353" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="354" spans="3:3">
-      <c r="C354" s="1" t="s">
+    <row r="354" spans="5:5">
+      <c r="E354" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="355" spans="4:4">
-      <c r="D355" s="2" t="s">
+    <row r="355" spans="6:6">
+      <c r="F355" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="356" spans="3:3">
-      <c r="C356" t="s">
+    <row r="356" spans="5:5">
+      <c r="E356" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="357" spans="3:3">
-      <c r="C357" s="1" t="s">
+    <row r="357" spans="6:6">
+      <c r="F357" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="358" spans="2:2">
-      <c r="B358" t="s">
+    <row r="358" spans="5:9">
+      <c r="E358" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="359" spans="3:3">
-      <c r="C359" t="s">
+      <c r="I358" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="360" spans="3:3">
-      <c r="C360" t="s">
+    <row r="359" spans="6:10">
+      <c r="F359" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="1" t="s">
+      <c r="J359" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="2:2">
-      <c r="B363" t="s">
+    <row r="360" spans="6:11">
+      <c r="F360" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" t="s">
+      <c r="K360" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="1" t="s">
+    <row r="362" spans="4:4">
+      <c r="D362" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="1" t="s">
+    <row r="363" spans="5:5">
+      <c r="E363" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="369" spans="2:2">
-      <c r="B369" s="2" t="s">
+    <row r="365" spans="3:3">
+      <c r="C365" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="370" spans="2:2">
-      <c r="B370" s="2" t="s">
+    <row r="366" spans="3:3">
+      <c r="C366" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="371" spans="2:3">
-      <c r="B371" s="2"/>
-      <c r="C371" s="2" t="s">
+    <row r="367" spans="4:4">
+      <c r="D367" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" s="2"/>
+    <row r="368" spans="4:4">
+      <c r="D368" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4">
+      <c r="D369" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" t="s">
-        <v>329</v>
+      <c r="B373" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" t="s">
-        <v>330</v>
-      </c>
+      <c r="B374" s="1"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" t="s">
-        <v>331</v>
+      <c r="B375" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" t="s">
-        <v>332</v>
+      <c r="B376" s="2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="377" spans="3:3">
-      <c r="C377" t="s">
-        <v>333</v>
+      <c r="C377" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2">
-      <c r="B385" s="2"/>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="1" t="s">
+      <c r="B378" s="2" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2">
+      <c r="B379" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="380" spans="3:14">
+      <c r="C380" t="s">
+        <v>339</v>
+      </c>
+      <c r="N380" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="381" spans="2:14">
+      <c r="B381" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N381" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2">
+      <c r="B391" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2">
+      <c r="B393" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="395" spans="2:2">
       <c r="B395" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="396" spans="3:3">
-      <c r="C396" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="397" spans="4:4">
-      <c r="D397" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="398" spans="4:4">
-      <c r="D398" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="399" spans="3:3">
-      <c r="C399" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="400" spans="4:4">
-      <c r="D400" t="s">
-        <v>343</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2">
+      <c r="B398" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="404" spans="3:3">
-      <c r="C404" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2">
-      <c r="B405" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="406" spans="3:3">
-      <c r="C406" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="407" spans="3:3">
-      <c r="C407" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="408" spans="3:3">
-      <c r="C408" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="409" spans="3:3">
-      <c r="C409" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2">
-      <c r="B411" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="412" spans="3:3">
-      <c r="C412" t="s">
-        <v>353</v>
+      <c r="B402" s="2"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="413" spans="3:3">
-      <c r="C413" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="414" spans="3:3">
-      <c r="C414" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" t="s">
-        <v>356</v>
+      <c r="C413" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4">
+      <c r="D415" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="417" spans="4:4">
+      <c r="D417" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2">
+      <c r="B420" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="422" spans="2:2">
-      <c r="B422" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2">
-      <c r="B423" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="424" spans="2:2">
-      <c r="B424" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2">
-      <c r="B425" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2">
-      <c r="B427" t="s">
-        <v>361</v>
+      <c r="B422" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="428" spans="2:2">
-      <c r="B428" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="429" spans="2:2">
-      <c r="B429" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2">
-      <c r="B433" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2">
-      <c r="B434" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2">
-      <c r="B435" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2">
-      <c r="B436" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2">
-      <c r="B437" t="s">
-        <v>369</v>
+      <c r="B428" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="438" spans="2:2">
       <c r="B438" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="448" spans="3:3">
-      <c r="C448" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="449" spans="3:3">
-      <c r="C449" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="450" spans="3:3">
-      <c r="C450" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="451" spans="3:3">
-      <c r="C451" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="452" spans="4:4">
-      <c r="D452" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="453" spans="4:4">
-      <c r="D453" t="s">
-        <v>380</v>
+      <c r="B446" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="1" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="458" spans="2:2">
-      <c r="B458" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="459" spans="3:3">
-      <c r="C459" s="2" t="s">
-        <v>383</v>
+      <c r="B458" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="2" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="460" spans="3:3">
-      <c r="C460" s="2" t="s">
-        <v>384</v>
+      <c r="C460" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="461" spans="3:3">
-      <c r="C461" s="2"/>
+      <c r="C461" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="462" spans="3:3">
-      <c r="C462" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="463" spans="3:4">
-      <c r="C463" s="2"/>
-      <c r="D463" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3">
-      <c r="C464" s="2"/>
-    </row>
-    <row r="465" spans="3:3">
-      <c r="C465" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="466" spans="3:4">
-      <c r="C466" s="2"/>
-      <c r="D466" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="467" spans="3:3">
-      <c r="C467" s="2"/>
-    </row>
-    <row r="468" spans="3:3">
-      <c r="C468" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="469" spans="3:3">
-      <c r="C469" s="2"/>
-    </row>
-    <row r="470" spans="3:3">
-      <c r="C470" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="471" spans="3:4">
-      <c r="C471" s="2"/>
-      <c r="D471" s="2" t="s">
-        <v>391</v>
+      <c r="C462" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="464" spans="4:4">
+      <c r="D464" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="465" spans="4:4">
+      <c r="D465" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="472" spans="3:3">
-      <c r="C472" s="2"/>
+      <c r="C472" s="2" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="473" spans="3:3">
-      <c r="C473" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="474" spans="3:4">
-      <c r="C474" s="2"/>
-      <c r="D474" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="475" spans="3:3">
+      <c r="C473" s="2"/>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4">
       <c r="C475" s="2"/>
+      <c r="D475" s="1" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="476" spans="3:3">
-      <c r="C476" s="2" t="s">
-        <v>394</v>
-      </c>
+      <c r="C476" s="2"/>
     </row>
     <row r="477" spans="3:3">
-      <c r="C477" s="2"/>
-    </row>
-    <row r="478" spans="3:3">
-      <c r="C478" s="2" t="s">
-        <v>395</v>
+      <c r="C477" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4">
+      <c r="C478" s="2"/>
+      <c r="D478" s="2" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="479" spans="3:3">
@@ -11595,7 +12242,7 @@
     </row>
     <row r="480" spans="3:3">
       <c r="C480" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="481" spans="3:3">
@@ -11603,144 +12250,211 @@
     </row>
     <row r="482" spans="3:3">
       <c r="C482" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="483" spans="3:4">
       <c r="C483" s="2"/>
       <c r="D483" s="2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="484" spans="3:3">
       <c r="C484" s="2"/>
     </row>
     <row r="485" spans="3:3">
-      <c r="C485" s="2" t="s">
-        <v>399</v>
+      <c r="C485" s="1" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="486" spans="3:4">
       <c r="C486" s="2"/>
-      <c r="D486" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="487" spans="3:4">
+      <c r="D486" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
       <c r="C487" s="2"/>
-      <c r="D487" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="488" spans="3:4">
-      <c r="C488" s="2"/>
-      <c r="D488" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2">
-      <c r="B491" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="1" t="s">
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489" s="2"/>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491" s="2"/>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493" s="2"/>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="495" spans="3:4">
+      <c r="C495" s="2"/>
+      <c r="D495" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496" s="2"/>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4">
+      <c r="C498" s="2"/>
+      <c r="D498" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4">
+      <c r="C499" s="2"/>
+      <c r="D499" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="500" spans="3:4">
+      <c r="C500" s="2"/>
+      <c r="D500" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="516" spans="2:2">
-      <c r="B516" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="517" spans="3:3">
-      <c r="C517" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="518" spans="3:3">
-      <c r="C518" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="519" spans="3:3">
-      <c r="C519" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="520" spans="3:3">
-      <c r="C520" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="521" spans="3:3">
-      <c r="C521" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="522" spans="3:3">
-      <c r="C522" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="523" spans="4:4">
-      <c r="D523" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="524" spans="4:4">
-      <c r="D524" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2">
-      <c r="B526" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="527" spans="3:3">
-      <c r="C527" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="528" spans="3:3">
-      <c r="C528" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="529" spans="3:3">
-      <c r="C529" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="530" spans="3:3">
-      <c r="C530" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="531" spans="3:3">
-      <c r="C531" t="s">
-        <v>421</v>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="532" spans="3:3">
       <c r="C532" t="s">
-        <v>422</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="538" spans="4:4">
+      <c r="D538" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="539" spans="4:4">
+      <c r="D539" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -11770,67 +12484,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -11900,32 +12614,32 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -11933,47 +12647,47 @@
     </row>
     <row r="54" ht="14.25" spans="2:2">
       <c r="B54" s="3" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" ht="14.25" spans="2:2">
       <c r="B55" s="3" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="56" ht="14.25" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" ht="14.25" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" ht="14.25" spans="2:2">
       <c r="B58" s="3" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" ht="14.25" spans="2:2">
       <c r="B60" s="3" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="4" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63" ht="14.25" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" s="4" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -11988,7 +12702,7 @@
   <sheetPr/>
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A55" sqref="$A55:$XFD83"/>
     </sheetView>
   </sheetViews>
@@ -12004,62 +12718,62 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" customFormat="1"/>
@@ -12096,4 +12810,52 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="Z45:AA53"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X11" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="45" spans="26:26">
+      <c r="Z45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="27:27">
+      <c r="AA46" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="48" spans="26:26">
+      <c r="Z48" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="49" spans="27:27">
+      <c r="AA49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="26:26">
+      <c r="Z51" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="26:26">
+      <c r="Z53" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Netty.xlsx
+++ b/Netty.xlsx
@@ -7709,6 +7709,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -7724,26 +7752,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7752,43 +7771,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7808,6 +7790,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -7823,8 +7829,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7832,14 +7839,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7854,7 +7854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7866,7 +7878,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7878,7 +7944,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7890,13 +7968,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7908,133 +8034,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8066,8 +8066,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8087,17 +8111,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8107,21 +8127,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8141,22 +8146,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -8168,10 +8168,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8180,16 +8180,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8198,115 +8198,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8671,13 +8671,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8695,7 +8695,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242050" y="20631150"/>
+          <a:off x="6242050" y="20459700"/>
           <a:ext cx="4064000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8713,13 +8713,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8737,7 +8737,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="22898100"/>
+          <a:off x="695325" y="22726650"/>
           <a:ext cx="4143375" cy="2504440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8755,13 +8755,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8779,7 +8779,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600950" y="25765125"/>
+          <a:off x="7600950" y="25593675"/>
           <a:ext cx="5143500" cy="4714875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8797,13 +8797,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>209</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8821,7 +8821,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="31346775"/>
+          <a:off x="7143750" y="31175325"/>
           <a:ext cx="4629150" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8839,13 +8839,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8863,7 +8863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7191375" y="36166425"/>
+          <a:off x="7191375" y="35994975"/>
           <a:ext cx="5553075" cy="4448175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8881,13 +8881,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>409</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8905,7 +8905,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="68560950"/>
+          <a:off x="714375" y="68389500"/>
           <a:ext cx="6038850" cy="1630045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8923,13 +8923,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>330</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8947,7 +8947,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="56578500"/>
+          <a:off x="685800" y="56407050"/>
           <a:ext cx="7248525" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8965,13 +8965,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>512</xdr:row>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>528</xdr:row>
+      <xdr:row>527</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8989,7 +8989,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="87782400"/>
+          <a:off x="685800" y="87610950"/>
           <a:ext cx="4800600" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9007,13 +9007,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>509</xdr:row>
+      <xdr:row>508</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>527</xdr:row>
+      <xdr:row>526</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9031,7 +9031,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7372350" y="87353775"/>
+          <a:off x="7372350" y="87182325"/>
           <a:ext cx="7362825" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9049,13 +9049,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9073,7 +9073,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133975" y="7058025"/>
+          <a:off x="5133975" y="6886575"/>
           <a:ext cx="2466975" cy="1373505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9091,13 +9091,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9115,7 +9115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048375" y="8905875"/>
+          <a:off x="6048375" y="8734425"/>
           <a:ext cx="3810000" cy="1813560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9133,13 +9133,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9157,7 +9157,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="10772775"/>
+          <a:off x="6972300" y="10601325"/>
           <a:ext cx="3353435" cy="1896745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9175,13 +9175,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9199,7 +9199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="5857875"/>
+          <a:off x="723900" y="5686425"/>
           <a:ext cx="3400425" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9217,13 +9217,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>412</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>424</xdr:row>
+      <xdr:row>423</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9241,7 +9241,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9172575" y="70637400"/>
+          <a:off x="9172575" y="70465950"/>
           <a:ext cx="4029075" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9259,13 +9259,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>391</xdr:row>
+      <xdr:row>390</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9283,7 +9283,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7800975" y="66217800"/>
+          <a:off x="7800975" y="66046350"/>
           <a:ext cx="3877310" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9301,13 +9301,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600710</xdr:colOff>
-      <xdr:row>399</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>286385</xdr:colOff>
-      <xdr:row>407</xdr:row>
+      <xdr:row>406</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9325,7 +9325,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6772910" y="68456175"/>
+          <a:off x="6772910" y="68284725"/>
           <a:ext cx="5172075" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10657,10 +10657,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N548"/>
+  <dimension ref="A1:N547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10817,29 +10817,32 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="2"/>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="2" t="s">
-        <v>115</v>
-      </c>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="2"/>
@@ -10847,1742 +10850,1739 @@
     <row r="36" spans="2:2">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" s="2"/>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
     </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>120</v>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
-        <v>121</v>
+      <c r="B44" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3">
-      <c r="C50" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="1" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="2" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="1"/>
-      <c r="C64" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="1"/>
-      <c r="D65" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="4:4">
-      <c r="D69" s="1" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="2"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
+    <row r="69" spans="3:3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="3:3">
-      <c r="C78" s="2" t="s">
+    <row r="77" spans="3:3">
+      <c r="C77" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
-      <c r="C82" s="2" t="s">
+    <row r="81" spans="3:3">
+      <c r="C81" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
     </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="84" spans="3:3">
-      <c r="C84" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="2" t="s">
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="1" t="s">
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
         <v>154</v>
       </c>
     </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
     <row r="95" spans="3:3">
-      <c r="C95" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" t="s">
+      <c r="C95" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="4:4">
-      <c r="D97" s="1" t="s">
+    <row r="96" spans="4:4">
+      <c r="D96" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
         <v>158</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1" t="s">
+    <row r="102" spans="2:3">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1" t="s">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="105" spans="3:3">
-      <c r="C105" s="2" t="s">
+    <row r="104" spans="3:3">
+      <c r="C104" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="1" t="s">
+    <row r="105" spans="2:2">
+      <c r="B105" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="1" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="1" t="s">
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="2" t="s">
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="1" t="s">
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="1" t="s">
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="1" t="s">
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
         <v>178</v>
       </c>
     </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="2" t="s">
-        <v>179</v>
+      <c r="B125" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="3:3">
       <c r="C129" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="3:3">
       <c r="C130" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3">
-      <c r="C131" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="1" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="1" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="154" spans="3:3">
-      <c r="C154" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="3:3">
-      <c r="C157" s="1" t="s">
+    <row r="156" spans="3:3">
+      <c r="C156" s="1" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="2" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="2" t="s">
+      <c r="B162" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="1" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="2" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="6:6">
       <c r="F202" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="203" spans="6:6">
-      <c r="F203" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="6:8">
+    <row r="204" spans="6:8">
+      <c r="F204" t="s">
+        <v>210</v>
+      </c>
+      <c r="G204" t="s">
+        <v>211</v>
+      </c>
+      <c r="H204" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="6:6">
       <c r="F205" t="s">
-        <v>210</v>
-      </c>
-      <c r="G205" t="s">
-        <v>211</v>
-      </c>
-      <c r="H205" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="206" spans="6:6">
-      <c r="F206" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="1" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="2:2">
-      <c r="B211" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
         <v>215</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="213" spans="3:3">
-      <c r="C213" s="1" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="2:2">
       <c r="B214" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="3:3">
-      <c r="C216" t="s">
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="2" t="s">
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="3:3">
-      <c r="C218" s="1" t="s">
+    <row r="217" spans="3:3">
+      <c r="C217" s="1" t="s">
         <v>222</v>
       </c>
     </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>223</v>
+      </c>
+    </row>
     <row r="219" spans="2:2">
-      <c r="B219" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="2" t="s">
+      <c r="B219" s="2" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="222" spans="3:3">
-      <c r="C222" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="4:4">
-      <c r="D223" s="1" t="s">
+    <row r="222" spans="4:4">
+      <c r="D222" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="3:3">
-      <c r="C224" t="s">
+    <row r="223" spans="3:3">
+      <c r="C223" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="2" t="s">
+    <row r="224" spans="2:2">
+      <c r="B224" s="2" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="3:3">
       <c r="C226" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="3:3">
       <c r="C227" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="228" spans="3:3">
-      <c r="C228" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="2" t="s">
+    <row r="228" spans="2:2">
+      <c r="B228" s="2" t="s">
         <v>233</v>
       </c>
     </row>
+    <row r="229" spans="3:3">
+      <c r="C229" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
     <row r="230" spans="3:3">
-      <c r="C230" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="231" spans="3:3">
-      <c r="C231" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="1" t="s">
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="2:3">
-      <c r="B239" t="s">
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
         <v>237</v>
       </c>
+      <c r="C238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
       <c r="C239" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="3:3">
       <c r="C240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3">
-      <c r="C241" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="2:3">
-      <c r="B243" t="s">
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
         <v>241</v>
       </c>
+      <c r="C242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
       <c r="C243" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="3:3">
       <c r="C244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="3:3">
-      <c r="C245" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="2:3">
-      <c r="B247" t="s">
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
         <v>245</v>
       </c>
+      <c r="C246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
       <c r="C247" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="3:3">
       <c r="C248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="3:3">
-      <c r="C249" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="2:3">
-      <c r="B251" t="s">
+    <row r="250" spans="2:3">
+      <c r="B250" t="s">
         <v>249</v>
       </c>
+      <c r="C250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3">
-      <c r="C252" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="4:4">
-      <c r="D253" t="s">
+    <row r="252" spans="4:4">
+      <c r="D252" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="3:3">
-      <c r="C254" t="s">
+    <row r="253" spans="3:3">
+      <c r="C253" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="2:3">
-      <c r="B256" t="s">
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
         <v>254</v>
       </c>
+      <c r="C255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
       <c r="C256" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="3:3">
       <c r="C257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="3:3">
-      <c r="C258" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="1" t="s">
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="261" spans="2:2">
-      <c r="B261" s="2" t="s">
-        <v>63</v>
+      <c r="B261" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="262" spans="2:2">
-      <c r="B262" s="1" t="s">
-        <v>64</v>
+      <c r="B262" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="265" customFormat="1"/>
-    <row r="266" spans="1:1">
-      <c r="A266" s="1" t="s">
+    <row r="264" customFormat="1"/>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="270" customFormat="1"/>
-    <row r="271" spans="1:1">
-      <c r="A271" s="1" t="s">
+    <row r="269" customFormat="1"/>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="1" t="s">
+    <row r="271" spans="2:2">
+      <c r="B271" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="273" spans="3:3">
-      <c r="C273" s="2" t="s">
+    <row r="272" spans="3:3">
+      <c r="C272" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="1" t="s">
+    <row r="273" spans="2:2">
+      <c r="B273" s="1" t="s">
         <v>261</v>
       </c>
     </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
     <row r="275" spans="3:3">
-      <c r="C275" s="2" t="s">
-        <v>262</v>
+      <c r="C275" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="277" spans="3:3">
-      <c r="C277" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="1" t="s">
+    <row r="277" spans="2:2">
+      <c r="B277" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="279" spans="3:3">
-      <c r="C279" s="2" t="s">
+    <row r="278" spans="3:3">
+      <c r="C278" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="1" t="s">
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="2:2">
       <c r="B282" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
+      <c r="B283" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="1" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="2:2">
       <c r="B287" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="2:2">
       <c r="B288" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="1" t="s">
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
         <v>275</v>
       </c>
     </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
     <row r="292" spans="2:2">
-      <c r="B292" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2">
-      <c r="B293" s="2" t="s">
+      <c r="B292" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="1" t="s">
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="1" t="s">
+    <row r="295" spans="2:2">
+      <c r="B295" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
-      <c r="C297" t="s">
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2">
+      <c r="B297" s="1" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="1" t="s">
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="2" t="s">
+    <row r="301" spans="2:2">
+      <c r="B301" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="1" t="s">
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="1" t="s">
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="309" spans="2:2">
-      <c r="B309" t="s">
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="1" t="s">
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="312" spans="2:2">
-      <c r="B312" t="s">
+    <row r="311" spans="2:2">
+      <c r="B311" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="313" spans="3:3">
       <c r="C313" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3">
-      <c r="C314" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2">
-      <c r="B320" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="1" t="s">
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="1" t="s">
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2">
-      <c r="B330" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="1" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="348" spans="2:2">
-      <c r="B348" t="s">
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="1" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="351" spans="2:2">
-      <c r="B351" t="s">
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="3:3">
-      <c r="C352" s="1" t="s">
+    <row r="351" spans="3:3">
+      <c r="C351" s="1" t="s">
         <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4">
+      <c r="D352" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="353" spans="4:4">
       <c r="D353" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="354" spans="4:4">
-      <c r="D354" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="5:5">
-      <c r="E355" t="s">
+    <row r="354" spans="5:5">
+      <c r="E354" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="356" spans="6:6">
-      <c r="F356" t="s">
+    <row r="355" spans="6:6">
+      <c r="F355" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="357" spans="5:5">
-      <c r="E357" t="s">
+    <row r="356" spans="5:5">
+      <c r="E356" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="6:6">
-      <c r="F358" t="s">
+    <row r="357" spans="6:6">
+      <c r="F357" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="5:9">
-      <c r="E359" t="s">
+    <row r="358" spans="5:9">
+      <c r="E358" t="s">
         <v>318</v>
       </c>
-      <c r="I359" t="s">
+      <c r="I358" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="360" spans="6:10">
+    <row r="359" spans="6:10">
+      <c r="F359" t="s">
+        <v>320</v>
+      </c>
+      <c r="J359" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="360" spans="6:11">
       <c r="F360" t="s">
-        <v>320</v>
-      </c>
-      <c r="J360" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="361" spans="6:11">
-      <c r="F361" t="s">
         <v>322</v>
       </c>
-      <c r="K361" t="s">
+      <c r="K360" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="363" spans="4:4">
-      <c r="D363" t="s">
+    <row r="362" spans="4:4">
+      <c r="D362" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="364" spans="5:5">
-      <c r="E364" t="s">
+    <row r="363" spans="5:5">
+      <c r="E363" t="s">
         <v>325</v>
       </c>
     </row>
+    <row r="365" spans="3:3">
+      <c r="C365" t="s">
+        <v>326</v>
+      </c>
+    </row>
     <row r="366" spans="3:3">
-      <c r="C366" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="367" spans="3:3">
-      <c r="C367" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>327</v>
       </c>
     </row>
+    <row r="367" spans="4:4">
+      <c r="D367" t="s">
+        <v>328</v>
+      </c>
+    </row>
     <row r="368" spans="4:4">
-      <c r="D368" t="s">
-        <v>328</v>
+      <c r="D368" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="369" spans="4:4">
-      <c r="D369" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="370" spans="4:4">
-      <c r="D370" t="s">
+      <c r="D369" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="371" spans="3:3">
-      <c r="C371" s="1" t="s">
+    <row r="370" spans="3:3">
+      <c r="C370" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="1" t="s">
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
         <v>332</v>
       </c>
     </row>
+    <row r="373" spans="2:2">
+      <c r="B373" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="1" t="s">
-        <v>333</v>
-      </c>
+      <c r="B374" s="1"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="1"/>
+      <c r="B375" s="2" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="376" spans="2:2">
       <c r="B376" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="378" spans="3:3">
-      <c r="C378" s="2" t="s">
+    <row r="377" spans="3:3">
+      <c r="C377" s="2" t="s">
         <v>336</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2">
+      <c r="B378" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="379" spans="2:2">
       <c r="B379" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="381" spans="3:14">
-      <c r="C381" t="s">
+    <row r="380" spans="3:14">
+      <c r="C380" t="s">
         <v>339</v>
       </c>
+      <c r="N380" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="381" spans="2:14">
+      <c r="B381" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="N381" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="382" spans="2:14">
-      <c r="B382" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N382" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="1" t="s">
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="1" t="s">
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
         <v>344</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="387" spans="2:2">
       <c r="B387" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2">
-      <c r="B388" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="389" spans="2:3">
+    <row r="388" spans="2:3">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2">
       <c r="B389" s="2"/>
-      <c r="C389" s="2" t="s">
-        <v>347</v>
-      </c>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" s="2"/>
+      <c r="B390" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="391" spans="2:2">
       <c r="B391" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="392" spans="2:2">
       <c r="B392" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="393" spans="2:2">
       <c r="B393" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2">
-      <c r="B394" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="395" spans="3:3">
-      <c r="C395" t="s">
+    <row r="394" spans="3:3">
+      <c r="C394" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="396" spans="2:2">
-      <c r="B396" t="s">
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="398" spans="2:2">
       <c r="B398" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="399" spans="2:2">
-      <c r="B399" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="403" spans="2:2">
-      <c r="B403" s="2"/>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="1" t="s">
+    <row r="402" spans="2:2">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
-      <c r="B413" t="s">
+    <row r="412" spans="2:2">
+      <c r="B412" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="414" spans="3:3">
-      <c r="C414" s="1" t="s">
+    <row r="413" spans="3:3">
+      <c r="C413" s="1" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4">
+      <c r="D414" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="415" spans="4:4">
       <c r="D415" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="416" spans="4:4">
-      <c r="D416" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="417" spans="3:3">
-      <c r="C417" s="1" t="s">
+    <row r="416" spans="3:3">
+      <c r="C416" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="418" spans="4:4">
-      <c r="D418" t="s">
+    <row r="417" spans="4:4">
+      <c r="D417" t="s">
         <v>362</v>
       </c>
     </row>
+    <row r="419" spans="2:2">
+      <c r="B419" t="s">
+        <v>363</v>
+      </c>
+    </row>
     <row r="420" spans="2:2">
-      <c r="B420" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2">
-      <c r="B421" s="2" t="s">
+      <c r="B420" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="422" spans="3:3">
-      <c r="C422" s="2" t="s">
+    <row r="421" spans="3:3">
+      <c r="C421" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="423" spans="2:2">
-      <c r="B423" s="1" t="s">
+    <row r="422" spans="2:2">
+      <c r="B422" s="1" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="424" spans="3:3">
       <c r="C424" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="425" spans="3:3">
       <c r="C425" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="426" spans="3:3">
       <c r="C426" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="427" spans="3:3">
-      <c r="C427" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="429" spans="2:2">
-      <c r="B429" s="1" t="s">
+    <row r="428" spans="2:2">
+      <c r="B428" s="1" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="430" spans="3:3">
       <c r="C430" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="431" spans="3:3">
       <c r="C431" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="432" spans="3:3">
-      <c r="C432" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="439" spans="2:2">
       <c r="B439" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="440" spans="2:2">
       <c r="B440" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="441" spans="2:2">
       <c r="B441" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="442" spans="2:2">
       <c r="B442" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="443" spans="2:2">
-      <c r="B443" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="445" spans="2:2">
       <c r="B445" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="446" spans="2:2">
       <c r="B446" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="447" spans="2:2">
-      <c r="B447" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="1" t="s">
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="451" spans="2:2">
       <c r="B451" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="452" spans="2:2">
-      <c r="B452" s="1" t="s">
-        <v>385</v>
+      <c r="B452" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="453" spans="2:2">
       <c r="B453" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="454" spans="2:2">
       <c r="B454" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="455" spans="2:2">
-      <c r="B455" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="456" spans="2:2">
-      <c r="B456" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="1" t="s">
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
         <v>390</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="2" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="459" spans="2:2">
       <c r="B459" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="460" spans="2:2">
-      <c r="B460" s="2" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="461" spans="3:3">
       <c r="C461" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="462" spans="3:3">
       <c r="C462" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="463" spans="3:3">
       <c r="C463" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="464" spans="3:3">
-      <c r="C464" t="s">
         <v>396</v>
+      </c>
+    </row>
+    <row r="464" spans="4:4">
+      <c r="D464" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="465" spans="4:4">
       <c r="D465" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="466" spans="4:4">
-      <c r="D466" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="1" t="s">
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="471" spans="2:2">
-      <c r="B471" s="1" t="s">
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
         <v>400</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471" s="2" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="472" spans="3:3">
       <c r="C472" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="473" spans="3:3">
-      <c r="C473" s="2" t="s">
-        <v>402</v>
-      </c>
+      <c r="C473" s="2"/>
     </row>
     <row r="474" spans="3:3">
-      <c r="C474" s="2"/>
-    </row>
-    <row r="475" spans="3:3">
-      <c r="C475" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="476" spans="3:4">
+    <row r="475" spans="3:4">
+      <c r="C475" s="2"/>
+      <c r="D475" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
       <c r="C476" s="2"/>
-      <c r="D476" s="1" t="s">
-        <v>404</v>
-      </c>
     </row>
     <row r="477" spans="3:3">
-      <c r="C477" s="2"/>
-    </row>
-    <row r="478" spans="3:3">
-      <c r="C478" s="2" t="s">
+      <c r="C477" s="2" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="479" spans="3:4">
+    <row r="478" spans="3:4">
+      <c r="C478" s="2"/>
+      <c r="D478" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
       <c r="C479" s="2"/>
-      <c r="D479" s="2" t="s">
-        <v>406</v>
-      </c>
     </row>
     <row r="480" spans="3:3">
-      <c r="C480" s="2"/>
+      <c r="C480" s="2" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="481" spans="3:3">
-      <c r="C481" s="2" t="s">
-        <v>407</v>
-      </c>
+      <c r="C481" s="2"/>
     </row>
     <row r="482" spans="3:3">
-      <c r="C482" s="2"/>
-    </row>
-    <row r="483" spans="3:3">
-      <c r="C483" s="2" t="s">
+      <c r="C482" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="484" spans="3:4">
+    <row r="483" spans="3:4">
+      <c r="C483" s="2"/>
+      <c r="D483" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
       <c r="C484" s="2"/>
-      <c r="D484" s="2" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="485" spans="3:3">
-      <c r="C485" s="2"/>
-    </row>
-    <row r="486" spans="3:3">
-      <c r="C486" s="1" t="s">
+      <c r="C485" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="487" spans="3:4">
+    <row r="486" spans="3:4">
+      <c r="C486" s="2"/>
+      <c r="D486" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
       <c r="C487" s="2"/>
-      <c r="D487" s="2" t="s">
-        <v>411</v>
-      </c>
     </row>
     <row r="488" spans="3:3">
-      <c r="C488" s="2"/>
+      <c r="C488" s="2" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="489" spans="3:3">
-      <c r="C489" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="C489" s="2"/>
     </row>
     <row r="490" spans="3:3">
-      <c r="C490" s="2"/>
+      <c r="C490" s="2" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="491" spans="3:3">
-      <c r="C491" s="2" t="s">
-        <v>413</v>
-      </c>
+      <c r="C491" s="2"/>
     </row>
     <row r="492" spans="3:3">
-      <c r="C492" s="2"/>
+      <c r="C492" s="2" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="493" spans="3:3">
-      <c r="C493" s="2" t="s">
-        <v>414</v>
-      </c>
+      <c r="C493" s="2"/>
     </row>
     <row r="494" spans="3:3">
-      <c r="C494" s="2"/>
-    </row>
-    <row r="495" spans="3:3">
-      <c r="C495" s="2" t="s">
+      <c r="C494" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="496" spans="3:4">
+    <row r="495" spans="3:4">
+      <c r="C495" s="2"/>
+      <c r="D495" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
       <c r="C496" s="2"/>
-      <c r="D496" s="2" t="s">
-        <v>416</v>
-      </c>
     </row>
     <row r="497" spans="3:3">
-      <c r="C497" s="2"/>
-    </row>
-    <row r="498" spans="3:3">
-      <c r="C498" s="2" t="s">
+      <c r="C497" s="2" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4">
+      <c r="C498" s="2"/>
+      <c r="D498" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="499" spans="3:4">
       <c r="C499" s="2"/>
       <c r="D499" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="500" spans="3:4">
       <c r="C500" s="2"/>
       <c r="D500" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="501" spans="3:4">
-      <c r="C501" s="2"/>
-      <c r="D501" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="503" spans="1:1">
-      <c r="A503" s="1" t="s">
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="504" spans="2:2">
-      <c r="B504" t="s">
+    <row r="503" spans="2:2">
+      <c r="B503" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="505" spans="3:3">
       <c r="C505" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="506" spans="3:3">
       <c r="C506" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="507" spans="3:3">
-      <c r="C507" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="509" spans="1:1">
-      <c r="A509" s="1" t="s">
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="512" spans="1:1">
-      <c r="A512" s="1" t="s">
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="531" spans="1:1">
-      <c r="A531" s="1" t="s">
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="532" spans="2:2">
-      <c r="B532" t="s">
+    <row r="531" spans="2:2">
+      <c r="B531" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="533" spans="3:3">
       <c r="C533" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="534" spans="3:3">
       <c r="C534" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="535" spans="3:3">
       <c r="C535" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="536" spans="3:3">
       <c r="C536" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="537" spans="3:3">
       <c r="C537" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="538" spans="3:3">
-      <c r="C538" t="s">
         <v>434</v>
+      </c>
+    </row>
+    <row r="538" spans="4:4">
+      <c r="D538" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="539" spans="4:4">
       <c r="D539" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="540" spans="4:4">
-      <c r="D540" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="542" spans="2:2">
-      <c r="B542" t="s">
+    <row r="541" spans="2:2">
+      <c r="B541" t="s">
         <v>437</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="543" spans="3:3">
       <c r="C543" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="544" spans="3:3">
       <c r="C544" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="545" spans="3:3">
       <c r="C545" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="546" spans="3:3">
       <c r="C546" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="547" spans="3:3">
       <c r="C547" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="548" spans="3:3">
-      <c r="C548" t="s">
         <v>443</v>
       </c>
     </row>
